--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.75952369351777</v>
+        <v>5.934604333333334</v>
       </c>
       <c r="H2">
-        <v>5.75952369351777</v>
+        <v>17.803813</v>
       </c>
       <c r="I2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="J2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.28514801245561</v>
+        <v>1.381632333333333</v>
       </c>
       <c r="N2">
-        <v>1.28514801245561</v>
+        <v>4.144897</v>
       </c>
       <c r="O2">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="P2">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="Q2">
-        <v>7.401840427415356</v>
+        <v>8.199441232473445</v>
       </c>
       <c r="R2">
-        <v>7.401840427415356</v>
+        <v>73.79497109226101</v>
       </c>
       <c r="S2">
-        <v>0.1326402332383874</v>
+        <v>0.1349849692163839</v>
       </c>
       <c r="T2">
-        <v>0.1326402332383874</v>
+        <v>0.1349849692163839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.75952369351777</v>
+        <v>5.934604333333334</v>
       </c>
       <c r="H3">
-        <v>5.75952369351777</v>
+        <v>17.803813</v>
       </c>
       <c r="I3">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="J3">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10844290150883</v>
+        <v>1.136233333333333</v>
       </c>
       <c r="N3">
-        <v>1.10844290150883</v>
+        <v>3.4087</v>
       </c>
       <c r="O3">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365698</v>
       </c>
       <c r="P3">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365697</v>
       </c>
       <c r="Q3">
-        <v>6.38410315415169</v>
+        <v>6.743095263677778</v>
       </c>
       <c r="R3">
-        <v>6.38410315415169</v>
+        <v>60.6878573731</v>
       </c>
       <c r="S3">
-        <v>0.1144024840427821</v>
+        <v>0.111009577455818</v>
       </c>
       <c r="T3">
-        <v>0.1144024840427821</v>
+        <v>0.111009577455818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.75952369351777</v>
+        <v>5.934604333333334</v>
       </c>
       <c r="H4">
-        <v>5.75952369351777</v>
+        <v>17.803813</v>
       </c>
       <c r="I4">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="J4">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.577968957494046</v>
+        <v>0.6365753333333333</v>
       </c>
       <c r="N4">
-        <v>0.577968957494046</v>
+        <v>1.909726</v>
       </c>
       <c r="O4">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="P4">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="Q4">
-        <v>3.328825904804723</v>
+        <v>3.777822731693111</v>
       </c>
       <c r="R4">
-        <v>3.328825904804723</v>
+        <v>34.000404585238</v>
       </c>
       <c r="S4">
-        <v>0.05965222416682983</v>
+        <v>0.06219317520356426</v>
       </c>
       <c r="T4">
-        <v>0.05965222416682983</v>
+        <v>0.06219317520356425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.68616430706936</v>
+        <v>7.720664</v>
       </c>
       <c r="H5">
-        <v>7.68616430706936</v>
+        <v>23.161992</v>
       </c>
       <c r="I5">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="J5">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.28514801245561</v>
+        <v>1.381632333333333</v>
       </c>
       <c r="N5">
-        <v>1.28514801245561</v>
+        <v>4.144897</v>
       </c>
       <c r="O5">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="P5">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="Q5">
-        <v>9.877858782637439</v>
+        <v>10.66711901720267</v>
       </c>
       <c r="R5">
-        <v>9.877858782637439</v>
+        <v>96.00407115482402</v>
       </c>
       <c r="S5">
-        <v>0.1770102322082066</v>
+        <v>0.1756096167214366</v>
       </c>
       <c r="T5">
-        <v>0.1770102322082066</v>
+        <v>0.1756096167214366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.68616430706936</v>
+        <v>7.720664</v>
       </c>
       <c r="H6">
-        <v>7.68616430706936</v>
+        <v>23.161992</v>
       </c>
       <c r="I6">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="J6">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.10844290150883</v>
+        <v>1.136233333333333</v>
       </c>
       <c r="N6">
-        <v>1.10844290150883</v>
+        <v>3.4087</v>
       </c>
       <c r="O6">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365698</v>
       </c>
       <c r="P6">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365697</v>
       </c>
       <c r="Q6">
-        <v>8.519674266001568</v>
+        <v>8.772475792266667</v>
       </c>
       <c r="R6">
-        <v>8.519674266001568</v>
+        <v>78.95228213039999</v>
       </c>
       <c r="S6">
-        <v>0.1526717027797553</v>
+        <v>0.1444186672234221</v>
       </c>
       <c r="T6">
-        <v>0.1526717027797553</v>
+        <v>0.1444186672234221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.68616430706936</v>
+        <v>7.720664</v>
       </c>
       <c r="H7">
-        <v>7.68616430706936</v>
+        <v>23.161992</v>
       </c>
       <c r="I7">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="J7">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.577968957494046</v>
+        <v>0.6365753333333333</v>
       </c>
       <c r="N7">
-        <v>0.577968957494046</v>
+        <v>1.909726</v>
       </c>
       <c r="O7">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="P7">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="Q7">
-        <v>4.442364371684825</v>
+        <v>4.914784259354667</v>
       </c>
       <c r="R7">
-        <v>4.442364371684825</v>
+        <v>44.233058334192</v>
       </c>
       <c r="S7">
-        <v>0.07960672108084506</v>
+        <v>0.08091063563291491</v>
       </c>
       <c r="T7">
-        <v>0.07960672108084506</v>
+        <v>0.0809106356329149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.33363606105315</v>
+        <v>5.601191</v>
       </c>
       <c r="H8">
-        <v>5.33363606105315</v>
+        <v>16.803573</v>
       </c>
       <c r="I8">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464604</v>
       </c>
       <c r="J8">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28514801245561</v>
+        <v>1.381632333333333</v>
       </c>
       <c r="N8">
-        <v>1.28514801245561</v>
+        <v>4.144897</v>
       </c>
       <c r="O8">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="P8">
-        <v>0.4324826246306928</v>
+        <v>0.4379959344090866</v>
       </c>
       <c r="Q8">
-        <v>6.854511783024025</v>
+        <v>7.738786590775667</v>
       </c>
       <c r="R8">
-        <v>6.854511783024025</v>
+        <v>69.649079316981</v>
       </c>
       <c r="S8">
-        <v>0.1228321591840988</v>
+        <v>0.1274013484712662</v>
       </c>
       <c r="T8">
-        <v>0.1228321591840988</v>
+        <v>0.1274013484712662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.33363606105315</v>
+        <v>5.601191</v>
       </c>
       <c r="H9">
-        <v>5.33363606105315</v>
+        <v>16.803573</v>
       </c>
       <c r="I9">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464604</v>
       </c>
       <c r="J9">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.10844290150883</v>
+        <v>1.136233333333333</v>
       </c>
       <c r="N9">
-        <v>1.10844290150883</v>
+        <v>3.4087</v>
       </c>
       <c r="O9">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365698</v>
       </c>
       <c r="P9">
-        <v>0.373017186076345</v>
+        <v>0.3602011682365697</v>
       </c>
       <c r="Q9">
-        <v>5.912031031105881</v>
+        <v>6.364259920566666</v>
       </c>
       <c r="R9">
-        <v>5.912031031105881</v>
+        <v>57.2783392851</v>
       </c>
       <c r="S9">
-        <v>0.1059429992538076</v>
+        <v>0.1047729235573297</v>
       </c>
       <c r="T9">
-        <v>0.1059429992538076</v>
+        <v>0.1047729235573296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.33363606105315</v>
+        <v>5.601191</v>
       </c>
       <c r="H10">
-        <v>5.33363606105315</v>
+        <v>16.803573</v>
       </c>
       <c r="I10">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464604</v>
       </c>
       <c r="J10">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464603</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.577968957494046</v>
+        <v>0.6365753333333333</v>
       </c>
       <c r="N10">
-        <v>0.577968957494046</v>
+        <v>1.909726</v>
       </c>
       <c r="O10">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="P10">
-        <v>0.1945001892929622</v>
+        <v>0.2018028973543437</v>
       </c>
       <c r="Q10">
-        <v>3.082676073859539</v>
+        <v>3.565580027888666</v>
       </c>
       <c r="R10">
-        <v>3.082676073859539</v>
+        <v>32.09022025099799</v>
       </c>
       <c r="S10">
-        <v>0.05524124404528732</v>
+        <v>0.05869908651786457</v>
       </c>
       <c r="T10">
-        <v>0.05524124404528732</v>
+        <v>0.05869908651786455</v>
       </c>
     </row>
   </sheetData>
